--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,56 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,8 +724,14 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,22 +739,22 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>21100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -764,8 +771,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +818,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +865,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +888,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,29 +899,29 @@
         <v>9800</v>
       </c>
       <c r="E12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G12" s="3">
         <v>9400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>11300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>41800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>17000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>46200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +931,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +978,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,25 +996,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -986,8 +1025,14 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1072,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,38 +1092,40 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F17" s="3">
         <v>16100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>41500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>54200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>20500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>59200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1135,14 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1091,29 +1150,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-41500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-54200</v>
-      </c>
-      <c r="I18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-59200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1182,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1205,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,28 +1216,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1181,8 +1248,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,21 +1271,21 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-55500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-20200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-58900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,38 +1295,44 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>700</v>
+      </c>
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>14400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,38 +1342,44 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-43200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-26600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-70100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-22100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-60800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1389,14 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1345,8 +1436,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,38 +1483,44 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-16500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-43200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-26600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-70100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-22100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-60800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,38 +1530,44 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-43200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-26600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-70100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-22100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-60800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1577,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1624,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1671,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1718,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,8 +1765,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1641,28 +1780,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1673,38 +1812,44 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-16500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-43200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-26600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-70100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-22100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-60800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1859,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,38 +1906,44 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-16500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-43200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-26600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-70100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-22100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-60800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,43 +1953,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +2005,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +2028,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,32 +2047,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F41" s="3">
         <v>37200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>53200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>70500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2090,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,8 +2137,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,8 +2184,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,32 +2231,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,32 +2278,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F46" s="3">
         <v>38900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>54600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>72100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>13300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2325,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,32 +2372,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,8 +2419,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2466,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2513,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,32 +2560,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>300</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2607,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,32 +2654,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>52700</v>
+      </c>
+      <c r="F54" s="3">
         <v>39600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>55300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>72900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>15500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2701,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2724,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,32 +2743,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F57" s="3">
         <v>7300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,32 +2786,38 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F58" s="3">
         <v>8700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,32 +2833,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F59" s="3">
         <v>11800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,32 +2880,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F60" s="3">
         <v>27800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>25700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>26500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>40600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>36100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,32 +2927,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>8100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>12500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>113600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>90600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2689,13 +2974,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2704,17 +2995,17 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>36700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>34000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +3021,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +3068,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +3115,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,32 +3162,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F66" s="3">
         <v>35900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>36000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>38900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>190900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>160700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3209,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3232,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3275,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3322,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3008,17 +3343,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>211400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>211400</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3034,8 +3369,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,32 +3416,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+      <c r="E72" s="3">
+        <v>-498000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-426300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-399700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3463,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3510,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3557,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,32 +3604,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>33900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-386700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-360500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3651,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,43 +3698,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,38 +3750,44 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-16500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-43200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-26600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-70100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-22100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-60800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3797,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3820,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3451,11 +3848,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3466,8 +3863,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3910,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3957,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +4004,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +4051,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,8 +4098,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3697,11 +4130,11 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3712,8 +4145,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,8 +4168,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3755,11 +4196,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3770,8 +4211,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4258,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,8 +4305,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3878,11 +4337,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3893,8 +4352,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4375,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4418,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4465,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4512,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,8 +4559,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4100,11 +4591,11 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4115,8 +4606,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,8 +4653,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4182,11 +4685,11 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4195,6 +4698,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,60 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,20 +731,23 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
         <v>21100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,8 +760,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -777,8 +781,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,8 +831,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,8 +881,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,41 +903,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E12" s="3">
         <v>9800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>41800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>46200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,8 +1001,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1031,8 +1051,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,8 +1101,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1094,41 +1120,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="3">
         <v>15000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>54200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,20 +1168,23 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,15 +1197,15 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-20500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-59200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,8 +1218,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1207,20 +1240,21 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,14 +1267,14 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1254,8 +1288,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1280,15 +1317,15 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-20200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-58900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,16 +1338,19 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
@@ -1319,23 +1359,23 @@
         <v>700</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,41 +1388,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-70100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1438,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,8 +1488,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1489,41 +1538,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-60800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,41 +1588,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-60800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1638,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1630,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1677,8 +1738,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1724,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1771,20 +1838,23 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,14 +1867,14 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1818,41 +1888,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-60800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,8 +1938,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1912,41 +1988,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-60800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,46 +2038,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2093,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2030,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2049,35 +2135,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>31200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2183,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2143,8 +2233,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2190,8 +2283,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2237,35 +2333,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,35 +2383,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E46" s="3">
         <v>31900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2433,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2378,19 +2483,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -2399,14 +2507,14 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,8 +2533,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2472,8 +2583,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2519,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2566,19 +2683,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2587,14 +2707,14 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,8 +2733,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2660,35 +2783,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E54" s="3">
         <v>32100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>52700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>72900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2833,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2726,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2745,35 +2875,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,35 +2923,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E58" s="3">
         <v>14600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,35 +2973,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,35 +3023,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E60" s="3">
         <v>29700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,8 +3073,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2942,26 +3085,26 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>113600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>90600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2980,16 +3123,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3001,14 +3147,14 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>36700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,8 +3173,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3074,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3121,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3168,35 +3323,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E66" s="3">
         <v>29700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>190900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>160700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3215,8 +3373,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3234,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3281,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3328,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3349,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>211400</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>211400</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>211400</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3375,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3422,35 +3593,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
         <v>-498000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-426300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-399700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3643,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3516,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3563,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3610,35 +3793,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-386700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-360500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,8 +3843,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3704,46 +3893,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3756,41 +3948,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-60800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3803,8 +3998,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3822,8 +4020,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3854,8 +4053,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4068,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3916,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3963,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4010,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4057,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4104,8 +4318,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4136,8 +4353,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4151,8 +4368,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4170,8 +4390,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4202,8 +4423,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4217,8 +4438,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4264,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4311,8 +4538,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4343,8 +4573,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4358,8 +4588,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4377,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4424,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4471,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4518,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4565,8 +4808,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4597,8 +4843,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4612,8 +4858,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4659,8 +4908,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4691,8 +4943,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4704,6 +4956,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,64 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,8 +735,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,12 +749,12 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
         <v>21100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,8 +767,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -784,8 +788,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,8 +841,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,44 +917,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>41800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>46200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1021,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1025,22 +1045,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1074,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,44 +1147,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,8 +1198,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,12 +1212,12 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,15 +1230,15 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-20500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-59200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1251,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,8 +1274,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,12 +1286,12 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1270,14 +1304,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1291,8 +1325,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1320,15 +1357,15 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-20200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-58900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1341,19 +1378,22 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
@@ -1362,23 +1402,23 @@
         <v>700</v>
       </c>
       <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1391,44 +1431,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-70100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,8 +1484,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1491,8 +1537,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,44 +1590,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-60800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,44 +1643,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-60800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1696,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1908,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,12 +1922,12 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,14 +1940,14 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1891,44 +1961,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-60800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2014,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,44 +2067,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-60800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,49 +2120,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2178,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,38 +2222,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E41" s="3">
         <v>31800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>70500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2273,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,8 +2326,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2286,8 +2379,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2336,38 +2432,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,38 +2485,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E46" s="3">
         <v>32900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>52400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2538,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2486,8 +2591,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2495,13 +2603,13 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2510,14 +2618,14 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,8 +2644,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2586,8 +2697,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,22 +2803,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2710,14 +2830,14 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2856,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,38 +2909,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E54" s="3">
         <v>33700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>52700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>72900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +2962,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,38 +3006,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,38 +3057,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,38 +3110,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3026,38 +3163,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E60" s="3">
         <v>22100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,8 +3216,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3088,26 +3231,26 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>113600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>90600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3126,8 +3269,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3137,8 +3283,8 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3150,14 +3296,14 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>36700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3322,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,38 +3481,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E66" s="3">
         <v>22100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>190900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>160700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,8 +3534,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3520,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>211400</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>211400</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>211400</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3546,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,8 +3767,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3607,27 +3781,27 @@
       <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>-498000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-426300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-399700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +3820,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,38 +3979,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>11600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-386700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-360500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +4032,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,49 +4085,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3951,44 +4143,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-60800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4196,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,8 +4219,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4056,8 +4255,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4071,8 +4270,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,8 +4535,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4356,8 +4573,8 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4371,8 +4588,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,8 +4611,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4426,8 +4647,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4441,8 +4662,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,8 +4768,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4576,8 +4806,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4591,8 +4821,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4661,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,8 +5054,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4846,8 +5092,8 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4861,8 +5107,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4911,8 +5160,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4946,8 +5198,8 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4959,6 +5211,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,71 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,29 +739,35 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>21100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,11 +777,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -791,8 +798,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,8 +857,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +916,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,50 +943,52 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11100</v>
       </c>
       <c r="H12" s="3">
         <v>9800</v>
       </c>
       <c r="I12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>41800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>17000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>46200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,8 +998,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,13 +1057,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1048,25 +1087,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1077,8 +1116,14 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1175,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,50 +1199,52 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>41500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>54200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>20500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>59200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,29 +1254,35 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-10800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>4200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,18 +1292,18 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-20500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-59200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1313,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,29 +1340,31 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>-7100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,17 +1374,17 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1328,8 +1395,14 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1360,18 +1433,18 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-20200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-58900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1454,14 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1390,41 +1469,41 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>14400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1434,50 +1513,56 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-16500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-43200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-26600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-70100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-22100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-60800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1572,14 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1540,8 +1631,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,50 +1690,56 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-16500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-43200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-26600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-70100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-22100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-60800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,50 +1749,56 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-16500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-43200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-26600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-70100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-22100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-60800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1808,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1867,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1926,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1985,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,29 +2044,35 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>7100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,17 +2082,17 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1964,50 +2103,56 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-16500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-43200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-26600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-70100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-22100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-60800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2162,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,50 +2221,56 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-16500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-43200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-26600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-70100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-22100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-60800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,55 +2280,61 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2344,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2371,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,44 +2394,46 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F41" s="3">
         <v>19900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>31800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>31200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>50800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>37200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>53200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>70500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2449,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,8 +2508,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2382,8 +2567,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,44 +2626,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,44 +2685,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F46" s="3">
         <v>21700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>32900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>31900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>52400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>38900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>54600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>72100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>13300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2744,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2594,44 +2803,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2862,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2700,8 +2921,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2980,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,8 +3039,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2815,35 +3054,35 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +3098,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,44 +3157,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F54" s="3">
         <v>22500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>33700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>32100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>52700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>39600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>55300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>72900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3216,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3243,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,44 +3266,46 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,44 +3321,50 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E58" s="3">
         <v>9000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G58" s="3">
         <v>10400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>14600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>14700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,44 +3380,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>21100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>20300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,44 +3439,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F60" s="3">
         <v>20300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>22100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>29700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>34000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>27800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>25700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>26500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>40600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>36100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3498,14 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3234,29 +3519,29 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>12500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>113600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>90600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3272,25 +3557,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3299,17 +3590,17 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>36700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>34000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3616,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3675,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3734,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,44 +3793,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F66" s="3">
         <v>20300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>29700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>35500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>35900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>36000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>38900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>190900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>160700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3852,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3879,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3934,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3993,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3691,17 +4026,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>211400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>211400</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +4052,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,8 +4111,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3784,30 +4131,30 @@
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-498000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-426300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-399700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +4170,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4229,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4288,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,44 +4347,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>17300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>19300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>33900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-386700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-360500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4406,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,55 +4465,61 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4146,50 +4529,56 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-16500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-43200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-26600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-70100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-22100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-60800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4588,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,8 +4615,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4258,11 +4655,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4273,8 +4670,14 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4729,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4788,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4847,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4906,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,8 +4965,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4576,11 +5009,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4591,8 +5024,14 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,8 +5051,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4650,11 +5091,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4665,8 +5106,14 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +5165,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,8 +5224,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4809,11 +5268,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4824,8 +5283,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5310,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5365,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5424,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5483,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,8 +5542,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5095,11 +5586,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5110,8 +5601,14 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,8 +5660,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5201,11 +5704,11 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5214,6 +5717,12 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,75 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,19 +746,22 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -765,12 +769,12 @@
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
         <v>21100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -783,8 +787,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -804,8 +808,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,8 +870,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +932,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,53 +958,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>41800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>46200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1018,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,16 +1080,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1093,22 +1113,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1122,8 +1142,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,8 +1204,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1201,53 +1227,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>54200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,32 +1287,35 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,15 +1328,15 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-20500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-59200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,8 +1349,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1342,32 +1375,33 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,14 +1414,14 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1401,8 +1435,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1439,15 +1476,15 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-20200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1460,28 +1497,31 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1490,23 +1530,23 @@
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1519,53 +1559,56 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-70100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,8 +1621,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,8 +1683,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,53 +1745,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-70100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1755,53 +1807,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1814,8 +1869,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1931,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1932,8 +1993,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1991,8 +2055,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2050,32 +2117,35 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>7100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2088,14 +2158,14 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2109,53 +2179,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,8 +2241,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2227,53 +2303,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,58 +2365,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2350,8 +2432,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2373,8 +2458,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2396,47 +2482,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E41" s="3">
         <v>32100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2542,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2514,8 +2604,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2573,8 +2666,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2632,47 +2728,50 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2691,47 +2790,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E46" s="3">
         <v>34000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +2852,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2809,8 +2914,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2821,19 +2929,19 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2842,14 +2950,14 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2868,8 +2976,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2927,8 +3038,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2986,8 +3100,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3045,13 +3162,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
@@ -3060,16 +3180,16 @@
         <v>700</v>
       </c>
       <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -3078,14 +3198,14 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3104,8 +3224,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3163,47 +3286,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E54" s="3">
         <v>34800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>52700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3348,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3245,8 +3374,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3268,47 +3398,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3500</v>
       </c>
       <c r="F57" s="3">
         <v>3500</v>
       </c>
       <c r="G57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,47 +3458,50 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="3">
         <v>7200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>9000</v>
       </c>
       <c r="F58" s="3">
         <v>9000</v>
       </c>
       <c r="G58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H58" s="3">
         <v>10400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3386,47 +3520,50 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3445,47 +3582,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E60" s="3">
         <v>16200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3504,8 +3644,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3525,26 +3668,26 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>113600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>90600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3563,28 +3706,31 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E62" s="3">
         <v>30700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3596,14 +3742,14 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>36700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3622,8 +3768,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3681,8 +3830,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3740,8 +3892,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3799,47 +3954,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E66" s="3">
         <v>46900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>35500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>35900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>190900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>160700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3858,8 +4016,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3881,8 +4042,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3940,8 +4102,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3999,8 +4164,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4032,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>211400</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>211400</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>211400</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4058,8 +4226,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4117,8 +4288,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4137,27 +4311,27 @@
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-498000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-426300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-399700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4176,8 +4350,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4235,8 +4412,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4294,8 +4474,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4353,47 +4536,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-386700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-360500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4412,8 +4598,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4471,58 +4660,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4535,53 +4727,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4789,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4617,8 +4815,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4661,8 +4860,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4676,8 +4875,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4735,8 +4937,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4794,8 +4999,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4853,8 +5061,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4912,8 +5123,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4971,8 +5185,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5015,8 +5232,8 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -5030,8 +5247,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5053,8 +5273,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5097,8 +5318,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5333,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5171,8 +5395,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5230,8 +5457,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5274,8 +5504,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5289,8 +5519,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5312,8 +5545,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5371,8 +5605,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5430,8 +5667,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5489,8 +5729,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5548,8 +5791,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5592,8 +5838,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5607,8 +5853,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5666,8 +5915,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5710,8 +5962,8 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5723,6 +5975,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,79 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -749,8 +750,11 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,11 +764,11 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -772,12 +776,12 @@
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
         <v>21100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,8 +794,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -811,8 +815,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,8 +880,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +945,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,56 +972,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>41800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>46200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1035,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,19 +1100,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1116,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>23000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1165,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,56 +1254,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E17" s="3">
         <v>11000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>54200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1317,11 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,24 +1331,24 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-10800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,15 +1361,15 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-59200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1382,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,8 +1409,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1387,24 +1421,24 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1417,14 +1451,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1438,8 +1472,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1479,15 +1516,15 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-58900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1500,8 +1537,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1509,22 +1549,22 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1533,23 +1573,23 @@
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,56 +1602,59 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-6300</v>
       </c>
       <c r="E23" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-43200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-70100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-60800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,8 +1667,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,8 +1732,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1748,56 +1797,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-6300</v>
       </c>
       <c r="E26" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-70100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-60800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,56 +1862,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-6300</v>
       </c>
       <c r="E27" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-60800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1927,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +1992,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,8 +2057,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,8 +2187,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2131,24 +2201,24 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>7100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2161,14 +2231,14 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2182,56 +2252,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-6300</v>
       </c>
       <c r="E33" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-60800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2244,8 +2317,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,56 +2382,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-6300</v>
       </c>
       <c r="E35" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-60800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,61 +2447,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2517,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,50 +2569,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E41" s="3">
         <v>30800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2632,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2607,8 +2697,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2669,8 +2762,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2731,50 +2827,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,50 +2892,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E46" s="3">
         <v>31600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2855,8 +2957,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2917,8 +3022,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,19 +3040,19 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -2953,14 +3061,14 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,8 +3087,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3041,8 +3152,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,8 +3282,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3174,7 +3294,7 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
@@ -3183,16 +3303,16 @@
         <v>700</v>
       </c>
       <c r="H52" s="3">
+        <v>700</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -3201,14 +3321,14 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3347,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,50 +3412,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E54" s="3">
         <v>32300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>52700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,8 +3477,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,50 +3529,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3500</v>
       </c>
       <c r="G57" s="3">
         <v>3500</v>
       </c>
       <c r="H57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,50 +3592,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9000</v>
       </c>
       <c r="G58" s="3">
         <v>9000</v>
       </c>
       <c r="H58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I58" s="3">
         <v>10400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,50 +3657,53 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3585,50 +3722,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,13 +3787,16 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3671,26 +3814,26 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>113600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>90600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3709,31 +3852,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E62" s="3">
         <v>45200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3745,14 +3891,14 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>36700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,8 +3917,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3895,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,50 +4112,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E66" s="3">
         <v>58600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>35500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>190900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>160700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4019,8 +4177,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4203,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>211400</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>211400</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>211400</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4229,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,8 +4462,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4314,27 +4488,27 @@
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-498000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>-426300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-399700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4353,8 +4527,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,50 +4722,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>-28800</v>
       </c>
       <c r="E76" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-386700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-360500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4601,8 +4787,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,61 +4852,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4730,56 +4922,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-6300</v>
       </c>
       <c r="E81" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-60800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4987,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,8 +5014,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4863,8 +5062,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4878,8 +5077,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,8 +5402,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5235,8 +5452,8 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5250,8 +5467,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,8 +5494,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5321,8 +5542,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5336,8 +5557,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,8 +5687,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5507,8 +5737,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5522,8 +5752,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,8 +5779,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5608,8 +5842,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,8 +6037,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5841,8 +6087,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5856,8 +6102,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5918,8 +6167,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5965,8 +6217,8 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5978,6 +6230,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -753,8 +753,11 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,11 +770,11 @@
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -779,12 +782,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>21100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +800,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -818,8 +821,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -883,8 +889,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +957,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,59 +985,60 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>41800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>46200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1038,8 +1051,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,22 +1119,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1139,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>23000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1168,8 +1187,11 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1255,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,59 +1280,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>11500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>54200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>59200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1346,11 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,24 +1363,24 @@
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-10800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1364,15 +1393,15 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-20500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-59200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1414,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,8 +1442,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,24 +1457,24 @@
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>-7100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1454,14 +1487,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1475,8 +1508,11 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1519,15 +1555,15 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-20200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-58900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,34 +1576,37 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
@@ -1576,23 +1615,23 @@
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1605,59 +1644,62 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-60800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1670,8 +1712,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1735,8 +1780,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,59 +1848,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-22100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-60800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,59 +1916,62 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-22100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-60800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +1984,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2052,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2060,8 +2120,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,8 +2256,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,24 +2273,24 @@
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>7100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2234,14 +2303,14 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2255,59 +2324,62 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-22100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-60800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2392,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,59 +2460,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-22100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-60800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,64 +2528,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2520,8 +2601,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,53 +2655,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E41" s="3">
         <v>42300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,8 +2721,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,8 +2789,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2765,8 +2857,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2830,53 +2925,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,53 +2993,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E46" s="3">
         <v>43400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,8 +3061,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3025,8 +3129,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3043,19 +3150,19 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3064,14 +3171,14 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3090,8 +3197,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3155,8 +3265,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,19 +3401,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -3306,16 +3425,16 @@
         <v>700</v>
       </c>
       <c r="I52" s="3">
+        <v>700</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -3324,14 +3443,14 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,8 +3469,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,53 +3537,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E54" s="3">
         <v>44200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3480,8 +3605,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,53 +3659,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3500</v>
       </c>
       <c r="H57" s="3">
         <v>3500</v>
       </c>
       <c r="I57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3595,53 +3725,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9000</v>
       </c>
       <c r="H58" s="3">
         <v>9000</v>
       </c>
       <c r="I58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J58" s="3">
         <v>10400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,53 +3793,56 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3725,53 +3861,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3790,17 +3929,20 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E61" s="3">
         <v>13500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3817,26 +3959,26 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>113600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>90600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3855,34 +3997,37 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E62" s="3">
         <v>49800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3894,14 +4039,14 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>36700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3920,8 +4065,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,53 +4269,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E66" s="3">
         <v>73000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>190900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4337,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4374,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>211400</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>211400</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>211400</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4400,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,13 +4635,16 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-608000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -4491,27 +4664,27 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-498000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>-426300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-399700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4530,8 +4703,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,53 +4907,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-28800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-26300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-386700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-360500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4790,8 +4975,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,64 +5043,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4925,59 +5116,62 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-22100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-60800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4990,8 +5184,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,8 +5212,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5065,8 +5263,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5080,8 +5278,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,8 +5618,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5455,8 +5671,8 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5470,8 +5686,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,8 +5714,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5545,8 +5765,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5560,8 +5780,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,8 +5916,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5740,8 +5969,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5755,8 +5984,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,8 +6012,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5845,8 +6078,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,8 +6282,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6090,8 +6335,8 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -6105,8 +6350,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6170,8 +6418,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6220,8 +6471,8 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
@@ -6233,6 +6484,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,16 +757,19 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -773,11 +777,11 @@
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -785,12 +789,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
         <v>21100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -803,8 +807,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -824,8 +828,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -892,8 +899,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,8 +970,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,8 +999,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -995,53 +1009,53 @@
         <v>7800</v>
       </c>
       <c r="E12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F12" s="3">
         <v>6700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>41800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>46200</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1068,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,25 +1139,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1161,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>23000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1190,8 +1210,11 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,8 +1281,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,62 +1307,63 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>54200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>59200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,16 +1376,19 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-12800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1366,24 +1396,24 @@
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-10800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,15 +1426,15 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-20500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-59200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1417,8 +1447,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,16 +1476,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>-6800</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1460,24 +1494,24 @@
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>-7100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,14 +1524,14 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1511,8 +1545,11 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1558,15 +1595,15 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-20200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-58900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,37 +1616,40 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>700</v>
@@ -1618,23 +1658,23 @@
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,62 +1687,65 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-70100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-60800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1758,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1783,8 +1829,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,62 +1900,65 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-43200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-70100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-22100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-60800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,62 +1971,65 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-70100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-22100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-60800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +2042,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2113,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2123,8 +2184,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2255,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,16 +2326,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>6800</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -2276,24 +2346,24 @@
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>7100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2306,14 +2376,14 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2327,62 +2397,65 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-70100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-22100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-60800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2468,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,62 +2539,65 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-70100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-22100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-60800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,67 +2610,70 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2604,8 +2686,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2715,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,56 +2742,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E41" s="3">
         <v>47100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2811,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,8 +2882,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2860,8 +2953,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2928,56 +3024,59 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,56 +3095,59 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E46" s="3">
         <v>49600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>72100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3166,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3132,8 +3237,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3153,19 +3261,19 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -3174,14 +3282,14 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3200,8 +3308,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3268,8 +3379,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3450,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,22 +3521,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -3428,16 +3548,16 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3446,14 +3566,14 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3592,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,56 +3663,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E54" s="3">
         <v>50200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3734,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3763,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,56 +3790,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3500</v>
       </c>
       <c r="I57" s="3">
         <v>3500</v>
       </c>
       <c r="J57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,56 +3859,59 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>9000</v>
       </c>
       <c r="I58" s="3">
         <v>9000</v>
       </c>
       <c r="J58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K58" s="3">
         <v>10400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3796,56 +3930,59 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,56 +4001,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,20 +4072,23 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E61" s="3">
         <v>13700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3962,26 +4105,26 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>113600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>90600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4000,37 +4143,40 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E62" s="3">
         <v>71000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4042,14 +4188,14 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>36700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4068,8 +4214,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4285,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4356,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,56 +4427,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E66" s="3">
         <v>95500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>73000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>190900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>160700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4340,8 +4498,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4527,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4596,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4667,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4544,13 +4712,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>211400</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>211400</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>211400</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4570,8 +4738,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,17 +4809,20 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-608000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,27 +4841,27 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-498000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-426300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-399700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,8 +4880,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4951,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5022,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,56 +5093,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>-45300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-28800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-26300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-386700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-360500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4978,8 +5164,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,67 +5235,70 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5119,62 +5311,65 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-70100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-22100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-60800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5187,8 +5382,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,8 +5411,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5266,8 +5465,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5281,8 +5480,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5551,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5622,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5693,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5764,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,8 +5835,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5674,8 +5891,8 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
@@ -5689,8 +5906,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,8 +5935,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5768,8 +5989,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5783,8 +6004,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6075,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,8 +6146,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5972,8 +6202,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5987,8 +6217,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,8 +6246,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6081,8 +6315,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6386,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6457,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,8 +6528,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6338,8 +6584,8 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -6353,8 +6599,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6421,8 +6670,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6474,8 +6726,8 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
@@ -6487,6 +6739,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="92">
   <si>
     <t>MITO</t>
   </si>
@@ -1695,8 +1695,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-8100</v>
       </c>
       <c r="E23" s="3">
         <v>-20100</v>
@@ -1908,8 +1908,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-8100</v>
       </c>
       <c r="E26" s="3">
         <v>-20100</v>
@@ -1979,8 +1979,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-8100</v>
       </c>
       <c r="E27" s="3">
         <v>-20100</v>
@@ -2405,8 +2405,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-8100</v>
       </c>
       <c r="E33" s="3">
         <v>-20100</v>
@@ -2547,8 +2547,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-8100</v>
       </c>
       <c r="E35" s="3">
         <v>-20100</v>
@@ -5101,8 +5101,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>-52300</v>
       </c>
       <c r="E76" s="3">
         <v>-45300</v>
@@ -5319,8 +5319,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-8100</v>
       </c>
       <c r="E81" s="3">
         <v>-20100</v>
